--- a/ExcelSheet/sms.xlsx
+++ b/ExcelSheet/sms.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16620" windowHeight="6030" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="5925" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ENV &amp;LOGIN" sheetId="1" r:id="rId1"/>
     <sheet name="Newadmissionstudent" sheetId="2" r:id="rId2"/>
     <sheet name="Dynamicdata" sheetId="3" r:id="rId3"/>
+    <sheet name="Exception" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K17"/>
+  <oleSize ref="A1:O17"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>User Name</t>
   </si>
@@ -171,12 +172,6 @@
     <t>NAVi</t>
   </si>
   <si>
-    <t>PRE046</t>
-  </si>
-  <si>
-    <t>VV1208</t>
-  </si>
-  <si>
     <t>https://test.schoolec.in/en</t>
   </si>
   <si>
@@ -184,105 +179,6 @@
   </si>
   <si>
     <t>2 STD</t>
-  </si>
-  <si>
-    <t>PRE091</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>VV1209</t>
-  </si>
-  <si>
-    <t>PRE092</t>
-  </si>
-  <si>
-    <t>PRE093</t>
-  </si>
-  <si>
-    <t>VV1210</t>
-  </si>
-  <si>
-    <t>PRE094</t>
-  </si>
-  <si>
-    <t>VV1211</t>
-  </si>
-  <si>
-    <t>PRE095</t>
-  </si>
-  <si>
-    <t>PRE096</t>
-  </si>
-  <si>
-    <t>VV1212</t>
-  </si>
-  <si>
-    <t>PRE097</t>
-  </si>
-  <si>
-    <t>VV1213</t>
-  </si>
-  <si>
-    <t>PRE098</t>
-  </si>
-  <si>
-    <t>VV1214</t>
-  </si>
-  <si>
-    <t>PRE099</t>
-  </si>
-  <si>
-    <t>VV1215</t>
-  </si>
-  <si>
-    <t>PRE100</t>
-  </si>
-  <si>
-    <t>PRE101</t>
-  </si>
-  <si>
-    <t>VV1216</t>
-  </si>
-  <si>
-    <t>PRE102</t>
-  </si>
-  <si>
-    <t>VV1217</t>
-  </si>
-  <si>
-    <t>PRE103</t>
-  </si>
-  <si>
-    <t>VV1218</t>
-  </si>
-  <si>
-    <t>PRE104</t>
-  </si>
-  <si>
-    <t>VV1219</t>
-  </si>
-  <si>
-    <t>PRE105</t>
-  </si>
-  <si>
-    <t>VV1220</t>
-  </si>
-  <si>
-    <t>PRE106</t>
-  </si>
-  <si>
-    <t>PRE107</t>
-  </si>
-  <si>
-    <t>VV1221</t>
-  </si>
-  <si>
-    <t>PRE108</t>
-  </si>
-  <si>
-    <t>VV1222</t>
   </si>
   <si>
     <t>PRE109</t>
@@ -295,7 +191,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -652,7 +547,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -660,9 +555,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -670,10 +565,10 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -743,15 +638,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="29.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="1" max="1" width="29.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -759,10 +654,10 @@
         <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -786,7 +681,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -971,13 +866,13 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="25.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -992,4 +887,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>